--- a/data/pca/factorExposure/factorExposure_2018-01-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-01-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01075182092250397</v>
+        <v>-0.007192951992469493</v>
       </c>
       <c r="C2">
-        <v>0.005822072327811966</v>
+        <v>-0.03089144403765552</v>
       </c>
       <c r="D2">
-        <v>-0.02254916795009785</v>
+        <v>0.02799453866692542</v>
       </c>
       <c r="E2">
-        <v>0.06682944922125927</v>
+        <v>-0.0249475214306156</v>
       </c>
       <c r="F2">
-        <v>0.02563181951726399</v>
+        <v>0.03406349982887708</v>
       </c>
       <c r="G2">
-        <v>0.00952626901915586</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.008165480445808903</v>
+      </c>
+      <c r="H2">
+        <v>0.008695748290622338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.06066902539582371</v>
+        <v>-0.05791643442368181</v>
       </c>
       <c r="C3">
-        <v>-0.003527594596524412</v>
+        <v>-0.08984920352247101</v>
       </c>
       <c r="D3">
-        <v>0.03051873333945112</v>
+        <v>0.01339437325537095</v>
       </c>
       <c r="E3">
-        <v>0.2538789942805504</v>
+        <v>-0.07423917310315641</v>
       </c>
       <c r="F3">
-        <v>0.1569106741897069</v>
+        <v>0.0849394353127973</v>
       </c>
       <c r="G3">
-        <v>-0.04576661689993441</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.06455239197310941</v>
+      </c>
+      <c r="H3">
+        <v>0.001802389215805555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03510214410403444</v>
+        <v>-0.04922036530372416</v>
       </c>
       <c r="C4">
-        <v>-0.01555757500441422</v>
+        <v>-0.05993076766069014</v>
       </c>
       <c r="D4">
-        <v>-0.03041391359138809</v>
+        <v>0.0210593664293067</v>
       </c>
       <c r="E4">
-        <v>0.02880951580992755</v>
+        <v>0.002160215554681187</v>
       </c>
       <c r="F4">
-        <v>0.05666448294582155</v>
+        <v>0.02087462092458019</v>
       </c>
       <c r="G4">
-        <v>0.02532302023058723</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03769925438841402</v>
+      </c>
+      <c r="H4">
+        <v>-0.02840128821305395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.06301075482535974</v>
+        <v>-0.02738814039088237</v>
       </c>
       <c r="C6">
-        <v>-0.003663081618568877</v>
+        <v>-0.05734972493144144</v>
       </c>
       <c r="D6">
-        <v>-0.04309081718098268</v>
+        <v>0.01573213940743286</v>
       </c>
       <c r="E6">
-        <v>0.01845211525105486</v>
+        <v>-0.001219071736078006</v>
       </c>
       <c r="F6">
-        <v>0.03799028479416966</v>
+        <v>0.01947402043075164</v>
       </c>
       <c r="G6">
-        <v>0.05153219802503502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01896164206431269</v>
+      </c>
+      <c r="H6">
+        <v>-0.004388750969191339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02778232810398959</v>
+        <v>-0.01234505724048951</v>
       </c>
       <c r="C7">
-        <v>-0.07004947778841897</v>
+        <v>-0.03750676273477549</v>
       </c>
       <c r="D7">
-        <v>-0.001197760305711284</v>
+        <v>0.01255806224156653</v>
       </c>
       <c r="E7">
-        <v>0.007103376040099385</v>
+        <v>0.01738377519107236</v>
       </c>
       <c r="F7">
-        <v>0.007613912457545978</v>
+        <v>0.01122501037027077</v>
       </c>
       <c r="G7">
-        <v>-0.02087725341571181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.07244164714666097</v>
+      </c>
+      <c r="H7">
+        <v>0.008720695227901573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01784667529438095</v>
+        <v>0.009206004797406051</v>
       </c>
       <c r="C8">
-        <v>-0.01035468542304738</v>
+        <v>-0.008647174012280146</v>
       </c>
       <c r="D8">
-        <v>-0.02258476215369983</v>
+        <v>0.003399747325223108</v>
       </c>
       <c r="E8">
-        <v>0.02942489318959006</v>
+        <v>-0.0100168286718003</v>
       </c>
       <c r="F8">
-        <v>0.0463354054564375</v>
+        <v>0.02756096420925632</v>
       </c>
       <c r="G8">
-        <v>-0.01420469651396427</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02601998432275001</v>
+      </c>
+      <c r="H8">
+        <v>-0.02297299088018722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02871370653193091</v>
+        <v>-0.02503805868264367</v>
       </c>
       <c r="C9">
-        <v>-0.01209461272404217</v>
+        <v>-0.03994597962458608</v>
       </c>
       <c r="D9">
-        <v>-0.02500897874530567</v>
+        <v>0.01452384560447231</v>
       </c>
       <c r="E9">
-        <v>0.04735961620986238</v>
+        <v>0.001221282452162195</v>
       </c>
       <c r="F9">
-        <v>0.03535746531557305</v>
+        <v>0.02050363876895316</v>
       </c>
       <c r="G9">
-        <v>0.03120337478304291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.02597474270711498</v>
+      </c>
+      <c r="H9">
+        <v>0.003397582953754223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05189990272936496</v>
+        <v>-0.09994271859286501</v>
       </c>
       <c r="C10">
-        <v>0.0148055736902204</v>
+        <v>0.1772323426017091</v>
       </c>
       <c r="D10">
-        <v>0.1705116463614952</v>
+        <v>-0.02135096356735797</v>
       </c>
       <c r="E10">
-        <v>0.03508125367953732</v>
+        <v>-0.01741326919224105</v>
       </c>
       <c r="F10">
-        <v>-0.0009902706885240925</v>
+        <v>-0.0110415917321628</v>
       </c>
       <c r="G10">
-        <v>0.008097735705233304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.03055890626347539</v>
+      </c>
+      <c r="H10">
+        <v>0.02463420727576862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02870294311739877</v>
+        <v>-0.03089571505636804</v>
       </c>
       <c r="C11">
-        <v>0.002866534864599132</v>
+        <v>-0.05549350717262323</v>
       </c>
       <c r="D11">
-        <v>-0.04286366782036962</v>
+        <v>0.0005374055162020602</v>
       </c>
       <c r="E11">
-        <v>0.008736515556115466</v>
+        <v>0.007687517047578058</v>
       </c>
       <c r="F11">
-        <v>0.01914725179280845</v>
+        <v>0.02735537885147306</v>
       </c>
       <c r="G11">
-        <v>0.02397177796526625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.006809990451780808</v>
+      </c>
+      <c r="H11">
+        <v>-0.003632732146468818</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03645701846736497</v>
+        <v>-0.03086192628563472</v>
       </c>
       <c r="C12">
-        <v>-0.003336171457239697</v>
+        <v>-0.04974372623118957</v>
       </c>
       <c r="D12">
-        <v>-0.04108085193310244</v>
+        <v>0.004935841345537251</v>
       </c>
       <c r="E12">
-        <v>-0.01085175554117416</v>
+        <v>0.01341943058192648</v>
       </c>
       <c r="F12">
-        <v>0.004419664602212796</v>
+        <v>0.008119393739520576</v>
       </c>
       <c r="G12">
-        <v>0.006164590695527108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.01400041411397186</v>
+      </c>
+      <c r="H12">
+        <v>-0.002468933573530977</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01755290194508629</v>
+        <v>-0.009235570351685998</v>
       </c>
       <c r="C13">
-        <v>0.002270210908983727</v>
+        <v>-0.02880056638131633</v>
       </c>
       <c r="D13">
-        <v>-0.01653770189515153</v>
+        <v>0.0236949620907556</v>
       </c>
       <c r="E13">
-        <v>0.04215015186219546</v>
+        <v>-0.01609942035938873</v>
       </c>
       <c r="F13">
-        <v>0.04603698849315047</v>
+        <v>0.03488473311241444</v>
       </c>
       <c r="G13">
-        <v>0.02521403023614357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02150598652033376</v>
+      </c>
+      <c r="H13">
+        <v>-0.01136315728247974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01474309417719768</v>
+        <v>-0.005244365069648267</v>
       </c>
       <c r="C14">
-        <v>-0.01383682301090108</v>
+        <v>-0.02456743578142606</v>
       </c>
       <c r="D14">
-        <v>-0.009206045934092692</v>
+        <v>0.008125787321570044</v>
       </c>
       <c r="E14">
-        <v>0.01976183686966651</v>
+        <v>0.007927915822926375</v>
       </c>
       <c r="F14">
-        <v>0.04104434606858982</v>
+        <v>0.004161220467357108</v>
       </c>
       <c r="G14">
-        <v>-0.0215513547290601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03223577047553397</v>
+      </c>
+      <c r="H14">
+        <v>-0.01538111070069007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.026723894629186</v>
+        <v>-0.02691096934643619</v>
       </c>
       <c r="C16">
-        <v>-0.003147498109014974</v>
+        <v>-0.0421010243948263</v>
       </c>
       <c r="D16">
-        <v>-0.04195002164012799</v>
+        <v>0.0001430055018255288</v>
       </c>
       <c r="E16">
-        <v>0.009146471345550881</v>
+        <v>0.005140553113734125</v>
       </c>
       <c r="F16">
-        <v>0.02498635948869089</v>
+        <v>0.01573368969358741</v>
       </c>
       <c r="G16">
-        <v>0.03019868132573551</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.01237929517538246</v>
+      </c>
+      <c r="H16">
+        <v>-0.005832645165395586</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0296212348918907</v>
+        <v>-0.02372680569367953</v>
       </c>
       <c r="C19">
-        <v>-0.0003500293893734307</v>
+        <v>-0.05163623750771708</v>
       </c>
       <c r="D19">
-        <v>-0.03530525512237066</v>
+        <v>0.01419851197571637</v>
       </c>
       <c r="E19">
-        <v>0.04892553322117027</v>
+        <v>-0.02961435935666689</v>
       </c>
       <c r="F19">
-        <v>0.07973805849346172</v>
+        <v>0.04527297729016085</v>
       </c>
       <c r="G19">
-        <v>0.03199658798643847</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.03329862411765144</v>
+      </c>
+      <c r="H19">
+        <v>-0.02601063711834186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001829622359469774</v>
+        <v>-0.006312164806241638</v>
       </c>
       <c r="C20">
-        <v>-0.003583989049191358</v>
+        <v>-0.03002749192472136</v>
       </c>
       <c r="D20">
-        <v>-0.001297843963612668</v>
+        <v>0.01241572152543223</v>
       </c>
       <c r="E20">
-        <v>0.03126429704734868</v>
+        <v>-0.0161322892780936</v>
       </c>
       <c r="F20">
-        <v>0.02532740124297162</v>
+        <v>0.01400694498655293</v>
       </c>
       <c r="G20">
-        <v>-0.005870596614975805</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.02203510574029719</v>
+      </c>
+      <c r="H20">
+        <v>-0.01105343948938476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03820681572550469</v>
+        <v>-0.008221741417921504</v>
       </c>
       <c r="C21">
-        <v>-0.0211062937335808</v>
+        <v>-0.03183605703823492</v>
       </c>
       <c r="D21">
-        <v>-0.01366512250872635</v>
+        <v>0.01537092368423193</v>
       </c>
       <c r="E21">
-        <v>0.02244760335403074</v>
+        <v>-0.02082814125025828</v>
       </c>
       <c r="F21">
-        <v>0.04223908620163947</v>
+        <v>0.02526511659194638</v>
       </c>
       <c r="G21">
-        <v>0.02226557945753145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04501614016366523</v>
+      </c>
+      <c r="H21">
+        <v>-0.009336539697156537</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02531761649062184</v>
+        <v>-0.02193024903321432</v>
       </c>
       <c r="C24">
-        <v>-0.000931766560898878</v>
+        <v>-0.04658512619409981</v>
       </c>
       <c r="D24">
-        <v>-0.03496539632484583</v>
+        <v>0.005505124837661418</v>
       </c>
       <c r="E24">
-        <v>0.008271289422724638</v>
+        <v>0.009976954986812905</v>
       </c>
       <c r="F24">
-        <v>0.01739294768469229</v>
+        <v>0.02260334346725808</v>
       </c>
       <c r="G24">
-        <v>0.02488271651386526</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.009270561681348063</v>
+      </c>
+      <c r="H24">
+        <v>0.002040019245591628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03857233999251233</v>
+        <v>-0.0386650166794833</v>
       </c>
       <c r="C25">
-        <v>0.00085970021540952</v>
+        <v>-0.05526972624011157</v>
       </c>
       <c r="D25">
-        <v>-0.03204975057179026</v>
+        <v>0.009299528438545526</v>
       </c>
       <c r="E25">
-        <v>0.02088435803339514</v>
+        <v>0.01722105115585123</v>
       </c>
       <c r="F25">
-        <v>0.02957400024808716</v>
+        <v>0.01981859525350842</v>
       </c>
       <c r="G25">
-        <v>0.03197958109003109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.0165772868329878</v>
+      </c>
+      <c r="H25">
+        <v>-0.008664476176495309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.003517244762791596</v>
+        <v>-0.001015461687079971</v>
       </c>
       <c r="C26">
-        <v>-0.009991570381804</v>
+        <v>-0.004620354107608841</v>
       </c>
       <c r="D26">
-        <v>-0.005892389199750335</v>
+        <v>0.02345307528864778</v>
       </c>
       <c r="E26">
-        <v>0.03447312677752443</v>
+        <v>-0.002728921390785944</v>
       </c>
       <c r="F26">
-        <v>0.009775238565477531</v>
+        <v>0.009263506370156256</v>
       </c>
       <c r="G26">
-        <v>-0.01503729609668084</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.01996095898271435</v>
+      </c>
+      <c r="H26">
+        <v>-0.007537848399464053</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0005832396840206556</v>
+        <v>-4.180452702491998e-05</v>
       </c>
       <c r="C27">
-        <v>9.724154515180766e-05</v>
+        <v>-0.0002269475086987203</v>
       </c>
       <c r="D27">
-        <v>-0.001037745502786463</v>
+        <v>7.157209600850815e-05</v>
       </c>
       <c r="E27">
-        <v>0.0009287735497292475</v>
+        <v>-0.0003158462643336094</v>
       </c>
       <c r="F27">
-        <v>-0.002012521879822879</v>
+        <v>-0.000432132595288407</v>
       </c>
       <c r="G27">
-        <v>-0.001112990179939042</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.0001673163717417455</v>
+      </c>
+      <c r="H27">
+        <v>0.000865180849022489</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.08641816545523232</v>
+        <v>-0.1318176767817194</v>
       </c>
       <c r="C28">
-        <v>0.02296497437641476</v>
+        <v>0.2131181908259995</v>
       </c>
       <c r="D28">
-        <v>0.2449535001895516</v>
+        <v>-0.01334056911723253</v>
       </c>
       <c r="E28">
-        <v>0.03790615960698211</v>
+        <v>-0.010452482339845</v>
       </c>
       <c r="F28">
-        <v>-0.01001206145084004</v>
+        <v>-0.01037801454631774</v>
       </c>
       <c r="G28">
-        <v>-0.0004466763489057459</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.04648352254403431</v>
+      </c>
+      <c r="H28">
+        <v>0.01889909314677004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01415258735249321</v>
+        <v>-0.01031750108293064</v>
       </c>
       <c r="C29">
-        <v>-0.0103859055078896</v>
+        <v>-0.01991056019904036</v>
       </c>
       <c r="D29">
-        <v>-0.009137981586463629</v>
+        <v>0.006814858273135465</v>
       </c>
       <c r="E29">
-        <v>0.01858276213826942</v>
+        <v>0.006939169745329096</v>
       </c>
       <c r="F29">
-        <v>0.04458148259983843</v>
+        <v>-0.001625455745318271</v>
       </c>
       <c r="G29">
-        <v>-0.02037883130005065</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.02664188032951745</v>
+      </c>
+      <c r="H29">
+        <v>-0.02075191386016208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04336727456075287</v>
+        <v>-0.03210982212516796</v>
       </c>
       <c r="C30">
-        <v>0.04855734811005046</v>
+        <v>-0.07654198568930265</v>
       </c>
       <c r="D30">
-        <v>-0.06454914331162316</v>
+        <v>0.02671134759188054</v>
       </c>
       <c r="E30">
-        <v>0.05640923153683789</v>
+        <v>-0.01781366759841123</v>
       </c>
       <c r="F30">
-        <v>0.06038575075967503</v>
+        <v>0.04909987173006392</v>
       </c>
       <c r="G30">
-        <v>0.01275986070632166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01196417035457454</v>
+      </c>
+      <c r="H30">
+        <v>-0.02471697187860036</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04897173453898854</v>
+        <v>-0.03901105238875727</v>
       </c>
       <c r="C31">
-        <v>-0.01028807634446506</v>
+        <v>-0.02539038061236294</v>
       </c>
       <c r="D31">
-        <v>-0.01669488953601272</v>
+        <v>0.001716474811615655</v>
       </c>
       <c r="E31">
-        <v>-0.0001104242200651592</v>
+        <v>0.01676988854913439</v>
       </c>
       <c r="F31">
-        <v>0.02922659714361677</v>
+        <v>-0.02645256277766328</v>
       </c>
       <c r="G31">
-        <v>-0.01534507149030652</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02322453979062934</v>
+      </c>
+      <c r="H31">
+        <v>-0.007133031625811946</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0007204042150908273</v>
+        <v>-0.0004373812887392363</v>
       </c>
       <c r="C32">
-        <v>-0.02912376052341168</v>
+        <v>-0.03144012271400954</v>
       </c>
       <c r="D32">
-        <v>-0.02595133714282751</v>
+        <v>-0.005284288366985412</v>
       </c>
       <c r="E32">
-        <v>0.009634354875596485</v>
+        <v>-0.01201558356160413</v>
       </c>
       <c r="F32">
-        <v>0.07173789865332195</v>
+        <v>0.07949648746962833</v>
       </c>
       <c r="G32">
-        <v>0.0009778416037888162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.04917714249764705</v>
+      </c>
+      <c r="H32">
+        <v>-0.04793747738716887</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03076889631275545</v>
+        <v>-0.02463230482245294</v>
       </c>
       <c r="C33">
-        <v>0.02059870332286051</v>
+        <v>-0.04952688587476172</v>
       </c>
       <c r="D33">
-        <v>-0.03263835327893755</v>
+        <v>0.01311945210392607</v>
       </c>
       <c r="E33">
-        <v>0.04697772878232059</v>
+        <v>-0.01334272151410664</v>
       </c>
       <c r="F33">
-        <v>0.02076132184835251</v>
+        <v>0.02592910027291974</v>
       </c>
       <c r="G33">
-        <v>-0.007737680854542243</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.01026948263243879</v>
+      </c>
+      <c r="H33">
+        <v>0.008541674155885103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02822233944381652</v>
+        <v>-0.04012678107949558</v>
       </c>
       <c r="C34">
-        <v>-0.01106326864429867</v>
+        <v>-0.05644032159223716</v>
       </c>
       <c r="D34">
-        <v>-0.04333979487887359</v>
+        <v>-0.006849199942218571</v>
       </c>
       <c r="E34">
-        <v>0.008759325097451857</v>
+        <v>0.01780208304719442</v>
       </c>
       <c r="F34">
-        <v>0.03003565335816664</v>
+        <v>0.02495354164150702</v>
       </c>
       <c r="G34">
-        <v>0.02871741867674882</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02124966192721433</v>
+      </c>
+      <c r="H34">
+        <v>-0.004308231730786696</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01124578717278832</v>
+        <v>-0.009827835258370074</v>
       </c>
       <c r="C36">
-        <v>-0.005226230376384607</v>
+        <v>-0.002985654149402106</v>
       </c>
       <c r="D36">
-        <v>-0.0009001818332552801</v>
+        <v>0.01033059908327918</v>
       </c>
       <c r="E36">
-        <v>0.01475492158827339</v>
+        <v>0.002222351474000581</v>
       </c>
       <c r="F36">
-        <v>0.01986391382476258</v>
+        <v>0.001426151410238241</v>
       </c>
       <c r="G36">
-        <v>-0.0003126279232462774</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01351104038757271</v>
+      </c>
+      <c r="H36">
+        <v>-0.001553736728889753</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01951359471826777</v>
+        <v>-0.02612925499407278</v>
       </c>
       <c r="C38">
-        <v>0.003733110940518583</v>
+        <v>-0.01985594667049869</v>
       </c>
       <c r="D38">
-        <v>-0.00605524327766113</v>
+        <v>-0.008431419942314574</v>
       </c>
       <c r="E38">
-        <v>0.04432791906568484</v>
+        <v>0.003100742208438901</v>
       </c>
       <c r="F38">
-        <v>0.02958162550738543</v>
+        <v>0.01078207258988261</v>
       </c>
       <c r="G38">
-        <v>0.01206003077584042</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01807928481970553</v>
+      </c>
+      <c r="H38">
+        <v>-0.004518289798828228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02112817379292778</v>
+        <v>-0.02144551636683225</v>
       </c>
       <c r="C39">
-        <v>-0.009300138415334639</v>
+        <v>-0.08322475370758316</v>
       </c>
       <c r="D39">
-        <v>-0.06795268374751368</v>
+        <v>0.01124472818973535</v>
       </c>
       <c r="E39">
-        <v>0.03538324011615023</v>
+        <v>-0.004097544317798997</v>
       </c>
       <c r="F39">
-        <v>0.0470024154009708</v>
+        <v>0.04477643493185085</v>
       </c>
       <c r="G39">
-        <v>0.04361554258237779</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01149994088917662</v>
+      </c>
+      <c r="H39">
+        <v>0.006177025996878207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02646760458293495</v>
+        <v>-0.01660494713801547</v>
       </c>
       <c r="C40">
-        <v>0.0009220844788545155</v>
+        <v>-0.0296538077137648</v>
       </c>
       <c r="D40">
-        <v>-0.04357900746317216</v>
+        <v>0.01234940700038911</v>
       </c>
       <c r="E40">
-        <v>0.02523972170761787</v>
+        <v>-0.007325837964194994</v>
       </c>
       <c r="F40">
-        <v>0.007302430369026933</v>
+        <v>0.02793211641954384</v>
       </c>
       <c r="G40">
-        <v>0.04723867533473131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.01043478730138332</v>
+      </c>
+      <c r="H40">
+        <v>0.005150752099380789</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01019882579043671</v>
+        <v>-0.01129105099575633</v>
       </c>
       <c r="C41">
-        <v>0.001423581346850764</v>
+        <v>0.004991283242237137</v>
       </c>
       <c r="D41">
-        <v>0.01190366968423331</v>
+        <v>0.002570710894218764</v>
       </c>
       <c r="E41">
-        <v>0.007441469884735485</v>
+        <v>0.008406072566133562</v>
       </c>
       <c r="F41">
-        <v>0.007853025947618603</v>
+        <v>0.0005016015345709646</v>
       </c>
       <c r="G41">
-        <v>-0.002300729550667019</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.007769008958531447</v>
+      </c>
+      <c r="H41">
+        <v>-0.002906206397173015</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2050420024314875</v>
+        <v>-0.04619318060471581</v>
       </c>
       <c r="C42">
-        <v>0.139691995895857</v>
+        <v>-0.07718750886903616</v>
       </c>
       <c r="D42">
-        <v>-0.1210463673381874</v>
+        <v>0.1100291242778221</v>
       </c>
       <c r="E42">
-        <v>0.2824549632800506</v>
+        <v>-0.0916664695135169</v>
       </c>
       <c r="F42">
-        <v>-0.8688285902514453</v>
+        <v>-0.193906879451727</v>
       </c>
       <c r="G42">
-        <v>0.06185927404059218</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.3125030133863199</v>
+      </c>
+      <c r="H42">
+        <v>0.888772287261685</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01440496076555311</v>
+        <v>-0.02503523637836779</v>
       </c>
       <c r="C43">
-        <v>0.004442780588664978</v>
+        <v>-0.003897677494155327</v>
       </c>
       <c r="D43">
-        <v>0.01026044650396814</v>
+        <v>0.002336740370883914</v>
       </c>
       <c r="E43">
-        <v>0.01366748917135399</v>
+        <v>0.006232226970130625</v>
       </c>
       <c r="F43">
-        <v>0.01076580090527473</v>
+        <v>0.004971181443234181</v>
       </c>
       <c r="G43">
-        <v>-0.00482685195114931</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.008933994007305114</v>
+      </c>
+      <c r="H43">
+        <v>-0.003742596560495865</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.006188359186974804</v>
+        <v>-0.01120904709060171</v>
       </c>
       <c r="C44">
-        <v>-0.01213529532374677</v>
+        <v>-0.04807269912168078</v>
       </c>
       <c r="D44">
-        <v>-0.01650640994446361</v>
+        <v>0.006292953721772958</v>
       </c>
       <c r="E44">
-        <v>0.0666548395833242</v>
+        <v>-0.01350619521294176</v>
       </c>
       <c r="F44">
-        <v>0.04776892634613528</v>
+        <v>0.02877598682138873</v>
       </c>
       <c r="G44">
-        <v>0.007559994803804494</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.02802069806189209</v>
+      </c>
+      <c r="H44">
+        <v>0.01081005670709178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01250045232488116</v>
+        <v>-0.0002661588002887629</v>
       </c>
       <c r="C46">
-        <v>-0.002563013628307525</v>
+        <v>-0.01475498001009816</v>
       </c>
       <c r="D46">
-        <v>-0.0344948051053007</v>
+        <v>0.01112791714637914</v>
       </c>
       <c r="E46">
-        <v>0.03930545433719018</v>
+        <v>0.00757072477494514</v>
       </c>
       <c r="F46">
-        <v>0.06419307386240047</v>
+        <v>-0.005342961374245869</v>
       </c>
       <c r="G46">
-        <v>-0.02151916608907545</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01855090418353646</v>
+      </c>
+      <c r="H46">
+        <v>-0.02054805752035859</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07442984184473621</v>
+        <v>-0.06441258664482132</v>
       </c>
       <c r="C47">
-        <v>0.006139600414079793</v>
+        <v>-0.06001365021170615</v>
       </c>
       <c r="D47">
-        <v>-0.02186123892841836</v>
+        <v>-0.00580661069961506</v>
       </c>
       <c r="E47">
-        <v>-0.02969700999092734</v>
+        <v>0.01903313203195506</v>
       </c>
       <c r="F47">
-        <v>-1.059867632980892e-05</v>
+        <v>-0.05714648646678078</v>
       </c>
       <c r="G47">
-        <v>-0.03992581764787568</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.0155414620161978</v>
+      </c>
+      <c r="H47">
+        <v>-0.01115521618777703</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02230226065618075</v>
+        <v>-0.01310302881844999</v>
       </c>
       <c r="C48">
-        <v>-0.003866735654498467</v>
+        <v>-0.009710218353302144</v>
       </c>
       <c r="D48">
-        <v>-0.008452647166761557</v>
+        <v>0.0005103584665621263</v>
       </c>
       <c r="E48">
-        <v>0.01589553467248451</v>
+        <v>0.007861080476185906</v>
       </c>
       <c r="F48">
-        <v>0.01797981587815486</v>
+        <v>-0.01315208808367984</v>
       </c>
       <c r="G48">
-        <v>0.001731367892177887</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01590338693631325</v>
+      </c>
+      <c r="H48">
+        <v>-0.004812275241500413</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08103466321613087</v>
+        <v>-0.07048963014321423</v>
       </c>
       <c r="C50">
-        <v>-0.02283818492231985</v>
+        <v>-0.06421267314486302</v>
       </c>
       <c r="D50">
-        <v>-0.04180453315564962</v>
+        <v>-0.004879583953849955</v>
       </c>
       <c r="E50">
-        <v>0.002596563902013984</v>
+        <v>0.0194872388100011</v>
       </c>
       <c r="F50">
-        <v>0.007519651472916123</v>
+        <v>-0.05484220790479072</v>
       </c>
       <c r="G50">
-        <v>-0.05914724646604778</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.04088390773527364</v>
+      </c>
+      <c r="H50">
+        <v>-0.007847118157240459</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01029495193569148</v>
+        <v>-0.01142700275384789</v>
       </c>
       <c r="C51">
-        <v>-0.006747001013843339</v>
+        <v>-0.02473062110455638</v>
       </c>
       <c r="D51">
-        <v>0.01772966704874146</v>
+        <v>0.008194855362124035</v>
       </c>
       <c r="E51">
-        <v>0.06133262375109745</v>
+        <v>-0.001681514646596878</v>
       </c>
       <c r="F51">
-        <v>0.05542378142433863</v>
+        <v>0.03745351112773052</v>
       </c>
       <c r="G51">
-        <v>0.01192316346606169</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.03218837146704649</v>
+      </c>
+      <c r="H51">
+        <v>0.001764374855101112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1043784823872687</v>
+        <v>-0.09070139437048876</v>
       </c>
       <c r="C53">
-        <v>-0.005598269327804068</v>
+        <v>-0.08196458948309021</v>
       </c>
       <c r="D53">
-        <v>-0.0513571680335846</v>
+        <v>-0.006849248227529822</v>
       </c>
       <c r="E53">
-        <v>-0.05172193682710802</v>
+        <v>0.04259395457394302</v>
       </c>
       <c r="F53">
-        <v>0.004301786043244704</v>
+        <v>-0.06715017161192037</v>
       </c>
       <c r="G53">
-        <v>-0.02494416051705215</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.01756966970166766</v>
+      </c>
+      <c r="H53">
+        <v>0.0005842482195032176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02632806571245216</v>
+        <v>-0.02696557100244528</v>
       </c>
       <c r="C54">
-        <v>-0.007092378549213283</v>
+        <v>-0.003718932173327444</v>
       </c>
       <c r="D54">
-        <v>-0.001857920196947275</v>
+        <v>-0.005147928306432649</v>
       </c>
       <c r="E54">
-        <v>0.0002033183496471439</v>
+        <v>0.002238495120815493</v>
       </c>
       <c r="F54">
-        <v>0.03861732786226018</v>
+        <v>-0.0009313282343423712</v>
       </c>
       <c r="G54">
-        <v>-0.007044450269271587</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.02416694211102614</v>
+      </c>
+      <c r="H54">
+        <v>-0.01589742309464223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.07745918942789817</v>
+        <v>-0.06623310169144433</v>
       </c>
       <c r="C55">
-        <v>-0.0003730767993073728</v>
+        <v>-0.07148306317752647</v>
       </c>
       <c r="D55">
-        <v>-0.06440993605031742</v>
+        <v>-0.005725414734449866</v>
       </c>
       <c r="E55">
-        <v>-0.03147689937154058</v>
+        <v>0.03200372389142114</v>
       </c>
       <c r="F55">
-        <v>-0.003627019974435875</v>
+        <v>-0.06130836535992392</v>
       </c>
       <c r="G55">
-        <v>-0.04534248855565793</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.007268902903288622</v>
+      </c>
+      <c r="H55">
+        <v>-0.007645321389535698</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1451285223300537</v>
+        <v>-0.1356383274246494</v>
       </c>
       <c r="C56">
-        <v>0.003812529271857201</v>
+        <v>-0.1081282828041522</v>
       </c>
       <c r="D56">
-        <v>-0.07097557515888663</v>
+        <v>-0.0155502739667611</v>
       </c>
       <c r="E56">
-        <v>-0.08151990207657128</v>
+        <v>0.04395584007266893</v>
       </c>
       <c r="F56">
-        <v>-0.01363090071142829</v>
+        <v>-0.1059224838790994</v>
       </c>
       <c r="G56">
-        <v>-0.01932592991101802</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.002708382374699098</v>
+      </c>
+      <c r="H56">
+        <v>-0.009246057608954115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.0390888905672834</v>
+        <v>-0.01563547625120912</v>
       </c>
       <c r="C57">
-        <v>0.008399304525659948</v>
+        <v>-0.01348354823505439</v>
       </c>
       <c r="D57">
-        <v>-0.01200630304578263</v>
+        <v>0.02323762467099129</v>
       </c>
       <c r="E57">
-        <v>0.04402971834593754</v>
+        <v>-0.03119018408117184</v>
       </c>
       <c r="F57">
-        <v>0.02611995072211705</v>
+        <v>0.02043622504691728</v>
       </c>
       <c r="G57">
-        <v>0.03046024695291362</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02513742333266534</v>
+      </c>
+      <c r="H57">
+        <v>-0.003106922066923933</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1756706532577932</v>
+        <v>-0.06643919242427067</v>
       </c>
       <c r="C58">
-        <v>0.1316249956455089</v>
+        <v>-0.09300837048162398</v>
       </c>
       <c r="D58">
-        <v>-0.157971251644539</v>
+        <v>0.02137839763509695</v>
       </c>
       <c r="E58">
-        <v>0.6387254457373904</v>
+        <v>-0.9482933538612133</v>
       </c>
       <c r="F58">
-        <v>0.171484515094441</v>
+        <v>-0.1952823281031666</v>
       </c>
       <c r="G58">
-        <v>-0.5060990711181503</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.08274528671480665</v>
+      </c>
+      <c r="H58">
+        <v>-0.1151042883843424</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.08699610301865029</v>
+        <v>-0.1660580003410553</v>
       </c>
       <c r="C59">
-        <v>0.0425463474623507</v>
+        <v>0.2018997220160738</v>
       </c>
       <c r="D59">
-        <v>0.1988271623888097</v>
+        <v>-0.02047275501062589</v>
       </c>
       <c r="E59">
-        <v>0.05777094290567151</v>
+        <v>-0.01612696732784893</v>
       </c>
       <c r="F59">
-        <v>0.03199970733060578</v>
+        <v>0.01473159778214371</v>
       </c>
       <c r="G59">
-        <v>0.06764887499754133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01957065855566112</v>
+      </c>
+      <c r="H59">
+        <v>0.00048226242433015</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1987870676311828</v>
+        <v>-0.2874226020697582</v>
       </c>
       <c r="C60">
-        <v>0.04591790446055289</v>
+        <v>-0.09772115715861797</v>
       </c>
       <c r="D60">
-        <v>0.02669297462624607</v>
+        <v>0.001983770836121632</v>
       </c>
       <c r="E60">
-        <v>0.1104100273898605</v>
+        <v>-0.009679233323580868</v>
       </c>
       <c r="F60">
-        <v>0.1294810313547385</v>
+        <v>0.3913014721981091</v>
       </c>
       <c r="G60">
-        <v>0.4061672609330714</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.05014013272189892</v>
+      </c>
+      <c r="H60">
+        <v>-0.0131338531131504</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.0317884054499708</v>
+        <v>-0.02585927671513888</v>
       </c>
       <c r="C61">
-        <v>-0.003477142161398983</v>
+        <v>-0.06569966902419234</v>
       </c>
       <c r="D61">
-        <v>-0.05379320714674533</v>
+        <v>0.004337333993404133</v>
       </c>
       <c r="E61">
-        <v>0.01696053935052628</v>
+        <v>0.001341751194004458</v>
       </c>
       <c r="F61">
-        <v>0.03570849080390223</v>
+        <v>0.03085118677506854</v>
       </c>
       <c r="G61">
-        <v>0.05598287598606724</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01534964357804373</v>
+      </c>
+      <c r="H61">
+        <v>-0.006165260478006578</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01704446940324095</v>
+        <v>-0.01173974503123006</v>
       </c>
       <c r="C63">
-        <v>-0.006612090963220863</v>
+        <v>-0.03146163925049354</v>
       </c>
       <c r="D63">
-        <v>-0.02404925279612982</v>
+        <v>0.007373609786508426</v>
       </c>
       <c r="E63">
-        <v>0.001389754113515428</v>
+        <v>0.01589825965133585</v>
       </c>
       <c r="F63">
-        <v>0.01120642466371034</v>
+        <v>-0.003516241515749599</v>
       </c>
       <c r="G63">
-        <v>-0.02794579527150822</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.02056882261855785</v>
+      </c>
+      <c r="H63">
+        <v>-0.01197406225812023</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.0491302277664089</v>
+        <v>-0.04462100735851132</v>
       </c>
       <c r="C64">
-        <v>-0.0008257216880825942</v>
+        <v>-0.03804123062885246</v>
       </c>
       <c r="D64">
-        <v>-0.03218579432296242</v>
+        <v>0.003274979145012805</v>
       </c>
       <c r="E64">
-        <v>0.009354018627598526</v>
+        <v>0.01792173714973644</v>
       </c>
       <c r="F64">
-        <v>0.02302043723167441</v>
+        <v>0.01568009369344292</v>
       </c>
       <c r="G64">
-        <v>0.0178867387890325</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.008349418472761657</v>
+      </c>
+      <c r="H64">
+        <v>0.02234792460196488</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.07009459914691325</v>
+        <v>-0.07341477687037586</v>
       </c>
       <c r="C65">
-        <v>-0.003697606503212924</v>
+        <v>-0.07830625572444661</v>
       </c>
       <c r="D65">
-        <v>-0.04552430168121456</v>
+        <v>0.01442481619892359</v>
       </c>
       <c r="E65">
-        <v>0.01229867187800673</v>
+        <v>0.004170148231648598</v>
       </c>
       <c r="F65">
-        <v>0.03743469436114064</v>
+        <v>0.04562436176300557</v>
       </c>
       <c r="G65">
-        <v>0.05741341561866097</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.01044377565442902</v>
+      </c>
+      <c r="H65">
+        <v>-0.01171249384849128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04440297723922033</v>
+        <v>-0.04094264248069796</v>
       </c>
       <c r="C66">
-        <v>0.009190511538570607</v>
+        <v>-0.1227778667409122</v>
       </c>
       <c r="D66">
-        <v>-0.0792427238027876</v>
+        <v>0.01035770581027471</v>
       </c>
       <c r="E66">
-        <v>0.01065379894699749</v>
+        <v>-0.004585333031550582</v>
       </c>
       <c r="F66">
-        <v>0.07728799250900487</v>
+        <v>0.05427083473469576</v>
       </c>
       <c r="G66">
-        <v>0.04587182520758542</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.004914632651387901</v>
+      </c>
+      <c r="H66">
+        <v>-0.02122711274675011</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03741587052490299</v>
+        <v>-0.05248918588143071</v>
       </c>
       <c r="C67">
-        <v>0.008359487013903651</v>
+        <v>-0.02458022011958919</v>
       </c>
       <c r="D67">
-        <v>-0.001579452043452811</v>
+        <v>-0.007665380009297771</v>
       </c>
       <c r="E67">
-        <v>0.02203409469369831</v>
+        <v>0.008879523491371907</v>
       </c>
       <c r="F67">
-        <v>0.02838681284794422</v>
+        <v>0.008054386148393315</v>
       </c>
       <c r="G67">
-        <v>0.01695289827228711</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01775594268017949</v>
+      </c>
+      <c r="H67">
+        <v>-0.009420700692596736</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07891336514190117</v>
+        <v>-0.1485952002914314</v>
       </c>
       <c r="C68">
-        <v>0.04121501164993965</v>
+        <v>0.248235542986369</v>
       </c>
       <c r="D68">
-        <v>0.2224311058487432</v>
+        <v>-0.002075991372674323</v>
       </c>
       <c r="E68">
-        <v>0.02858686296676633</v>
+        <v>-0.0168865828542687</v>
       </c>
       <c r="F68">
-        <v>-0.0006975422305809587</v>
+        <v>-0.01975886415736964</v>
       </c>
       <c r="G68">
-        <v>0.0192687502726878</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01939363796914492</v>
+      </c>
+      <c r="H68">
+        <v>0.01482398306483694</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05653186053951256</v>
+        <v>-0.06785821843445165</v>
       </c>
       <c r="C69">
-        <v>0.004664027332661353</v>
+        <v>-0.05750862628591185</v>
       </c>
       <c r="D69">
-        <v>-0.03162473245010578</v>
+        <v>-0.01078193395472159</v>
       </c>
       <c r="E69">
-        <v>-0.02306194949729481</v>
+        <v>0.03471522343561743</v>
       </c>
       <c r="F69">
-        <v>0.02461887390656081</v>
+        <v>-0.0319450088293368</v>
       </c>
       <c r="G69">
-        <v>-0.01087427416602111</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01094374874941337</v>
+      </c>
+      <c r="H69">
+        <v>-0.02153954390137116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07150689183344185</v>
+        <v>-0.1419504805168594</v>
       </c>
       <c r="C71">
-        <v>0.0268872273260033</v>
+        <v>0.2092117585261102</v>
       </c>
       <c r="D71">
-        <v>0.223110670737178</v>
+        <v>-0.0102787703401962</v>
       </c>
       <c r="E71">
-        <v>0.05048754568001455</v>
+        <v>-0.02382977632321097</v>
       </c>
       <c r="F71">
-        <v>-0.03839792059910728</v>
+        <v>-0.02527224328559867</v>
       </c>
       <c r="G71">
-        <v>-0.02736878889142492</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.03024043138405745</v>
+      </c>
+      <c r="H71">
+        <v>0.02843722564236337</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1278364194469877</v>
+        <v>-0.07698906450400893</v>
       </c>
       <c r="C72">
-        <v>0.003693384363603854</v>
+        <v>-0.08755335911573445</v>
       </c>
       <c r="D72">
-        <v>-0.1227324707239452</v>
+        <v>-0.01057950833370179</v>
       </c>
       <c r="E72">
-        <v>0.05143101666989254</v>
+        <v>0.01886424400969247</v>
       </c>
       <c r="F72">
-        <v>0.1351020716408103</v>
+        <v>0.04185949322021212</v>
       </c>
       <c r="G72">
-        <v>0.1529922670638323</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.003757016424458046</v>
+      </c>
+      <c r="H72">
+        <v>-0.0182153673066275</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.244189456353628</v>
+        <v>-0.3858235359673756</v>
       </c>
       <c r="C73">
-        <v>0.1064535450333704</v>
+        <v>-0.1367880370695788</v>
       </c>
       <c r="D73">
-        <v>-0.005038819728613452</v>
+        <v>0.00733240592526783</v>
       </c>
       <c r="E73">
-        <v>0.1879332309536742</v>
+        <v>-0.06502112964216387</v>
       </c>
       <c r="F73">
-        <v>0.07074509331575324</v>
+        <v>0.5280384596383169</v>
       </c>
       <c r="G73">
-        <v>0.4205446611877435</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1053475490859954</v>
+      </c>
+      <c r="H73">
+        <v>0.08047393483993906</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1343707648453757</v>
+        <v>-0.1063690824746689</v>
       </c>
       <c r="C74">
-        <v>0.01057728326395428</v>
+        <v>-0.1222062200532487</v>
       </c>
       <c r="D74">
-        <v>-0.07179287896934504</v>
+        <v>-0.01128455146697105</v>
       </c>
       <c r="E74">
-        <v>-0.07951493366857622</v>
+        <v>0.04204291317935457</v>
       </c>
       <c r="F74">
-        <v>0.004058639052146013</v>
+        <v>-0.07276137969729941</v>
       </c>
       <c r="G74">
-        <v>-0.008874424202758262</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01111468141767959</v>
+      </c>
+      <c r="H74">
+        <v>-0.006175774834839481</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2703225577460042</v>
+        <v>-0.2453647607451611</v>
       </c>
       <c r="C75">
-        <v>0.03016382690653764</v>
+        <v>-0.1673093877486886</v>
       </c>
       <c r="D75">
-        <v>-0.1019432746003892</v>
+        <v>-0.03257817683794707</v>
       </c>
       <c r="E75">
-        <v>-0.153728713698724</v>
+        <v>0.06198057467989892</v>
       </c>
       <c r="F75">
-        <v>0.03920708365350754</v>
+        <v>-0.2126117153627844</v>
       </c>
       <c r="G75">
-        <v>-0.03069138843451479</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.01910866607009544</v>
+      </c>
+      <c r="H75">
+        <v>-0.03076959605283522</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2663619080651823</v>
+        <v>-0.1464528807022227</v>
       </c>
       <c r="C76">
-        <v>0.01005464836766776</v>
+        <v>-0.1406270102913171</v>
       </c>
       <c r="D76">
-        <v>-0.1160772172996747</v>
+        <v>-0.02452389337764048</v>
       </c>
       <c r="E76">
-        <v>-0.2126738098232041</v>
+        <v>0.06909460372239679</v>
       </c>
       <c r="F76">
-        <v>-0.01107787279960382</v>
+        <v>-0.1499011578926971</v>
       </c>
       <c r="G76">
-        <v>-0.07160426441011256</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.004125008151463934</v>
+      </c>
+      <c r="H76">
+        <v>-0.009778672811489357</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.07310633874143661</v>
+        <v>-0.05012116665608189</v>
       </c>
       <c r="C77">
-        <v>0.01025718582588459</v>
+        <v>-0.0619188294014698</v>
       </c>
       <c r="D77">
-        <v>-0.06360558786423216</v>
+        <v>0.01213065336305902</v>
       </c>
       <c r="E77">
-        <v>0.1008909308199157</v>
+        <v>-0.03349060234601122</v>
       </c>
       <c r="F77">
-        <v>-0.04895855324608443</v>
+        <v>-0.003549675760442766</v>
       </c>
       <c r="G77">
-        <v>-0.1272200418066868</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.02503580542282174</v>
+      </c>
+      <c r="H77">
+        <v>0.02101023215074689</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03252549780394799</v>
+        <v>-0.03959945557100808</v>
       </c>
       <c r="C78">
-        <v>-0.007452130942039547</v>
+        <v>-0.05529322871940442</v>
       </c>
       <c r="D78">
-        <v>-0.04989271129139964</v>
+        <v>0.004383025582939342</v>
       </c>
       <c r="E78">
-        <v>0.05515497628550299</v>
+        <v>-0.01491393456403669</v>
       </c>
       <c r="F78">
-        <v>0.05981733100001767</v>
+        <v>0.04667503292762085</v>
       </c>
       <c r="G78">
-        <v>0.03363427591181285</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.0230572362483153</v>
+      </c>
+      <c r="H78">
+        <v>-0.008927416861573462</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,102 +2754,117 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.240366595453032</v>
+        <v>-0.06247448939872165</v>
       </c>
       <c r="C80">
-        <v>-0.9396338632587486</v>
+        <v>-0.08459137524754659</v>
       </c>
       <c r="D80">
-        <v>0.1060197461566198</v>
+        <v>0.01200008072341682</v>
       </c>
       <c r="E80">
-        <v>0.1198946257004881</v>
+        <v>0.07002156006865519</v>
       </c>
       <c r="F80">
-        <v>-0.07721157660114948</v>
+        <v>-0.01299036578829988</v>
       </c>
       <c r="G80">
-        <v>-0.009558380208374522</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.9043083845983789</v>
+      </c>
+      <c r="H80">
+        <v>0.3115799599301036</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.2124954741488971</v>
+        <v>-0.1464176346100727</v>
       </c>
       <c r="C81">
-        <v>0.01461235944376263</v>
+        <v>-0.1065243361324544</v>
       </c>
       <c r="D81">
-        <v>-0.0785215446443726</v>
+        <v>-0.01854993202161529</v>
       </c>
       <c r="E81">
-        <v>-0.1135359347678922</v>
+        <v>0.04212746223567987</v>
       </c>
       <c r="F81">
-        <v>0.04175397849011704</v>
+        <v>-0.1397946698597752</v>
       </c>
       <c r="G81">
-        <v>-0.07709986280501903</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.01048192625696424</v>
+      </c>
+      <c r="H81">
+        <v>-0.01282468796492685</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.0329438350493621</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.02255777023726447</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.002873946244759428</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.02288060794072731</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>0.0002927300137231692</v>
       </c>
       <c r="G82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.0004692112451004807</v>
+      </c>
+      <c r="H82">
+        <v>-0.0140634586742441</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03413974261691274</v>
+        <v>-0.02520269549660673</v>
       </c>
       <c r="C83">
-        <v>0.0074284499538933</v>
+        <v>-0.01882934579242458</v>
       </c>
       <c r="D83">
-        <v>-0.004008406475065791</v>
+        <v>0.00446223070773059</v>
       </c>
       <c r="E83">
-        <v>0.03874894453163304</v>
+        <v>-0.02036982934496151</v>
       </c>
       <c r="F83">
-        <v>0.03374970648217985</v>
+        <v>0.02653075794348024</v>
       </c>
       <c r="G83">
-        <v>-0.007586312675770239</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.02582497961737487</v>
+      </c>
+      <c r="H83">
+        <v>-0.01091816330708196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2548653038334641</v>
+        <v>-0.2375300965238702</v>
       </c>
       <c r="C85">
-        <v>0.03864185752314923</v>
+        <v>-0.1786880056315894</v>
       </c>
       <c r="D85">
-        <v>-0.1197080086313531</v>
+        <v>-0.022301487874064</v>
       </c>
       <c r="E85">
-        <v>-0.1873710108485055</v>
+        <v>0.1010011656961881</v>
       </c>
       <c r="F85">
-        <v>0.0212939276056583</v>
+        <v>-0.2092997167570576</v>
       </c>
       <c r="G85">
-        <v>-0.07385653755829658</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.0584879129579998</v>
+      </c>
+      <c r="H85">
+        <v>-0.03638619564123113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.005696272592884848</v>
+        <v>-0.004649347972158451</v>
       </c>
       <c r="C86">
-        <v>-0.009768009085262834</v>
+        <v>-0.02700700729804694</v>
       </c>
       <c r="D86">
-        <v>-0.03641142169815513</v>
+        <v>0.009529622216718978</v>
       </c>
       <c r="E86">
-        <v>0.05430249242822399</v>
+        <v>-0.01229531189468654</v>
       </c>
       <c r="F86">
-        <v>0.04927823407927204</v>
+        <v>0.02629696538288153</v>
       </c>
       <c r="G86">
-        <v>-0.01990577644250939</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.04463643798987703</v>
+      </c>
+      <c r="H86">
+        <v>0.02144735403029189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02593944729610691</v>
+        <v>-0.01179151794180742</v>
       </c>
       <c r="C87">
-        <v>-0.006970083729250045</v>
+        <v>-0.02570346630135388</v>
       </c>
       <c r="D87">
-        <v>-0.02730249638156926</v>
+        <v>0.01085309693211691</v>
       </c>
       <c r="E87">
-        <v>0.09593542813973394</v>
+        <v>-0.07288558165609481</v>
       </c>
       <c r="F87">
-        <v>0.0685895593228617</v>
+        <v>0.06576920724825533</v>
       </c>
       <c r="G87">
-        <v>0.03822566463074144</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.03498564067095558</v>
+      </c>
+      <c r="H87">
+        <v>0.006137442823761629</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0436358631512263</v>
+        <v>-0.0746210864823646</v>
       </c>
       <c r="C88">
-        <v>0.008337242314688274</v>
+        <v>-0.04653096394402364</v>
       </c>
       <c r="D88">
-        <v>0.002555516461560404</v>
+        <v>0.01935959317147261</v>
       </c>
       <c r="E88">
-        <v>-0.009619053760469223</v>
+        <v>0.01840035332386387</v>
       </c>
       <c r="F88">
-        <v>0.003926076086001016</v>
+        <v>0.01219534796959015</v>
       </c>
       <c r="G88">
-        <v>0.01228370539830968</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.01600637274292555</v>
+      </c>
+      <c r="H88">
+        <v>-0.02925520263042603</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1398272561462686</v>
+        <v>-0.2494535252052019</v>
       </c>
       <c r="C89">
-        <v>0.08154247217550784</v>
+        <v>0.36396904096267</v>
       </c>
       <c r="D89">
-        <v>0.3798917224728395</v>
+        <v>-0.0164212511312752</v>
       </c>
       <c r="E89">
-        <v>0.01217044207247545</v>
+        <v>0.003757336148722993</v>
       </c>
       <c r="F89">
-        <v>0.05348856058676983</v>
+        <v>-0.02509364748529317</v>
       </c>
       <c r="G89">
-        <v>-0.01357087614108245</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.02273228267264204</v>
+      </c>
+      <c r="H89">
+        <v>-0.006634032124745178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07827906996472411</v>
+        <v>-0.2031941210397212</v>
       </c>
       <c r="C90">
-        <v>0.07260700606637653</v>
+        <v>0.3280564721449587</v>
       </c>
       <c r="D90">
-        <v>0.3406868954866029</v>
+        <v>-0.01655232336636887</v>
       </c>
       <c r="E90">
-        <v>-0.01976226508764284</v>
+        <v>-0.006596377712609903</v>
       </c>
       <c r="F90">
-        <v>-0.0193306815189787</v>
+        <v>-0.04593130597496416</v>
       </c>
       <c r="G90">
-        <v>-0.07121638655824059</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>8.165196480527665e-05</v>
+      </c>
+      <c r="H90">
+        <v>0.003475789645489875</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2891060197885911</v>
+        <v>-0.2049015365253943</v>
       </c>
       <c r="C91">
-        <v>0.03714745277508558</v>
+        <v>-0.1429348302728659</v>
       </c>
       <c r="D91">
-        <v>-0.1361580892148875</v>
+        <v>-0.02798051819922197</v>
       </c>
       <c r="E91">
-        <v>-0.2253133656297531</v>
+        <v>0.08239191463076662</v>
       </c>
       <c r="F91">
-        <v>-0.05956196928413059</v>
+        <v>-0.1964741211406748</v>
       </c>
       <c r="G91">
-        <v>-0.05307830438179997</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.01668471238652176</v>
+      </c>
+      <c r="H91">
+        <v>-0.01565128510480708</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2242794584866581</v>
+        <v>-0.2326906436598628</v>
       </c>
       <c r="C92">
-        <v>0.0890900188013015</v>
+        <v>0.2474511868874229</v>
       </c>
       <c r="D92">
-        <v>0.3673312391038157</v>
+        <v>-0.0582699703187723</v>
       </c>
       <c r="E92">
-        <v>-0.1046861607234336</v>
+        <v>-0.008008315411826476</v>
       </c>
       <c r="F92">
-        <v>0.02791919074155048</v>
+        <v>-0.1406313709694033</v>
       </c>
       <c r="G92">
-        <v>-0.2881076248850505</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.04863611582673783</v>
+      </c>
+      <c r="H92">
+        <v>-0.01649883589211194</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1302658770255662</v>
+        <v>-0.2334770724477373</v>
       </c>
       <c r="C93">
-        <v>0.1010155359864597</v>
+        <v>0.3180850900430608</v>
       </c>
       <c r="D93">
-        <v>0.3976827947399016</v>
+        <v>-0.02353448620586324</v>
       </c>
       <c r="E93">
-        <v>0.01172141260075234</v>
+        <v>-0.0195054624402847</v>
       </c>
       <c r="F93">
-        <v>-0.06479963430460714</v>
+        <v>-0.01805105505613552</v>
       </c>
       <c r="G93">
-        <v>0.01574000888401198</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.009184367507765823</v>
+      </c>
+      <c r="H93">
+        <v>0.03759457835912887</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3262752212124237</v>
+        <v>-0.2710558906151915</v>
       </c>
       <c r="C94">
-        <v>0.0736036149482059</v>
+        <v>-0.1741276444464895</v>
       </c>
       <c r="D94">
-        <v>-0.0979704413649308</v>
+        <v>-0.01669517070644546</v>
       </c>
       <c r="E94">
-        <v>-0.2125152116439509</v>
+        <v>0.1018763465741745</v>
       </c>
       <c r="F94">
-        <v>0.08453333729388518</v>
+        <v>-0.3502102787359692</v>
       </c>
       <c r="G94">
-        <v>-0.150458301097868</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.08982559257870573</v>
+      </c>
+      <c r="H94">
+        <v>-0.2408563958478456</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06439456599291261</v>
+        <v>-0.06797210021681545</v>
       </c>
       <c r="C95">
-        <v>0.07389228165361429</v>
+        <v>-0.09748329137943341</v>
       </c>
       <c r="D95">
-        <v>-0.03500353334356437</v>
+        <v>-0.007455352664837469</v>
       </c>
       <c r="E95">
-        <v>-0.01962387776979369</v>
+        <v>-0.07061884791175994</v>
       </c>
       <c r="F95">
-        <v>0.0991304335659792</v>
+        <v>0.1508225426852965</v>
       </c>
       <c r="G95">
-        <v>0.0715506882357847</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.06102012645172748</v>
+      </c>
+      <c r="H95">
+        <v>-0.00416297048694891</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1958801916022848</v>
+        <v>-0.2109631969997377</v>
       </c>
       <c r="C98">
-        <v>0.06506429583916623</v>
+        <v>-0.05567777305710941</v>
       </c>
       <c r="D98">
-        <v>0.02993500312025097</v>
+        <v>-0.02237002481911709</v>
       </c>
       <c r="E98">
-        <v>0.1872377810846825</v>
+        <v>-0.06301190352263925</v>
       </c>
       <c r="F98">
-        <v>0.1180941232102504</v>
+        <v>0.2581608524182133</v>
       </c>
       <c r="G98">
-        <v>0.3817671799272315</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.0403438233301756</v>
+      </c>
+      <c r="H98">
+        <v>0.05972451018708276</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.004497613250601028</v>
+        <v>-0.005372220719628011</v>
       </c>
       <c r="C101">
-        <v>-0.004486849995762552</v>
+        <v>-0.02099062570005579</v>
       </c>
       <c r="D101">
-        <v>-0.03099132557727231</v>
+        <v>0.007694064817876376</v>
       </c>
       <c r="E101">
-        <v>0.1370779199661308</v>
+        <v>-0.02778193640945197</v>
       </c>
       <c r="F101">
-        <v>0.1305940558312791</v>
+        <v>-0.005895695728448436</v>
       </c>
       <c r="G101">
-        <v>-0.1592981935815377</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.03494622714385644</v>
+      </c>
+      <c r="H101">
+        <v>-0.04519641142431223</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1423028754729649</v>
+        <v>-0.1173135282869528</v>
       </c>
       <c r="C102">
-        <v>0.01590270893355212</v>
+        <v>-0.085999196801813</v>
       </c>
       <c r="D102">
-        <v>-0.05245495884500415</v>
+        <v>-0.001433798629267388</v>
       </c>
       <c r="E102">
-        <v>-0.100078074265067</v>
+        <v>0.04547067684519862</v>
       </c>
       <c r="F102">
-        <v>-0.03704442940625124</v>
+        <v>-0.06261282364949855</v>
       </c>
       <c r="G102">
-        <v>-0.0532371951592169</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.01828824081838865</v>
+      </c>
+      <c r="H102">
+        <v>0.006325810155138207</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.03699834022667164</v>
+        <v>-0.006616081712005261</v>
       </c>
       <c r="C103">
-        <v>-0.01341299720774676</v>
+        <v>-0.007053912730248261</v>
       </c>
       <c r="D103">
-        <v>-0.01809952992617264</v>
+        <v>0.0003201371800382063</v>
       </c>
       <c r="E103">
-        <v>-0.010123066448534</v>
+        <v>0.0009647477998913573</v>
       </c>
       <c r="F103">
-        <v>0.0009140690918290388</v>
+        <v>-0.01053532895949316</v>
       </c>
       <c r="G103">
-        <v>-0.0008782534279223658</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.0148675180552816</v>
+      </c>
+      <c r="H103">
+        <v>0.008883680256511798</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.05748705783045475</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.04895933514608072</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9844815864870976</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.04516770281570449</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.02720517139968158</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.01372874971389072</v>
+      </c>
+      <c r="H104">
+        <v>-0.1036417412536653</v>
       </c>
     </row>
   </sheetData>
